--- a/sequence_analysis_by_relim.xlsx
+++ b/sequence_analysis_by_relim.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97254\Desktop\projects\final_v2\final_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaron\Desktop\project\final_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A446B134-59FE-4166-BAED-2CADFADE9DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D176ABD3-68A3-42F2-800D-A2260B2B78AA}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="חלוקה לרצפים שנתיים" sheetId="1" r:id="rId1"/>
     <sheet name="רצפים כלליים פר אזרח ותיק" sheetId="3" r:id="rId2"/>
+    <sheet name="חלוקה לרצפים חודשיים" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'חלוקה לרצפים חודשיים'!$A$1:$D$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'חלוקה לרצפים שנתיים'!$A$1:$D$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'רצפים כלליים פר אזרח ותיק'!$A$1:$D$563</definedName>
   </definedNames>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="231">
   <si>
     <t>support</t>
   </si>
@@ -700,12 +701,42 @@
   </si>
   <si>
     <t>('פנייה לסיוע כללי', 'ייעוץ טלפוני', 'פעולות איש קשר')</t>
+  </si>
+  <si>
+    <t>('בירור', 'שירותי אמבולנס')</t>
+  </si>
+  <si>
+    <t>('פעולות איש קשר', 'שירותי אמבולנס')</t>
+  </si>
+  <si>
+    <t>('ייעוץ טלפוני', 'שירותי אמבולנס')</t>
+  </si>
+  <si>
+    <t>('פעולות איש קשר', 'פנייה לסיוע כללי')</t>
+  </si>
+  <si>
+    <t>('שירותי רופא', 'פעולות איש קשר')</t>
+  </si>
+  <si>
+    <t>('פנייה לסיוע כללי', 'שירותי אמבולנס')</t>
+  </si>
+  <si>
+    <t>('ללא פעולות', 'שירותי אמבולנס')</t>
+  </si>
+  <si>
+    <t>('ללא פעולות', 'פנייה לסיוע כללי')</t>
+  </si>
+  <si>
+    <t>('שירותי רופא', 'פנייה לסיוע כללי')</t>
+  </si>
+  <si>
+    <t>('ללא פעולות', 'ייעוץ טלפוני')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1051,22 +1082,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE270DF-7FDE-44B8-B88A-9EF85DEC6A4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.09765625" customWidth="1"/>
-    <col min="2" max="2" width="22.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.3984375" customWidth="1"/>
-    <col min="4" max="4" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.125" customWidth="1"/>
+    <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1080,7 +1114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>211</v>
       </c>
@@ -1094,7 +1128,7 @@
         <v>0.95454545454545403</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>208</v>
       </c>
@@ -1108,7 +1142,7 @@
         <v>0.94017094017094005</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>93</v>
       </c>
@@ -1122,7 +1156,7 @@
         <v>0.93865030674846595</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1136,7 +1170,7 @@
         <v>0.93076923076923002</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1150,7 +1184,7 @@
         <v>0.92052980132450302</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1164,7 +1198,7 @@
         <v>0.90763052208835304</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -1178,7 +1212,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>96</v>
       </c>
@@ -1192,7 +1226,7 @@
         <v>0.89696969696969697</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -1206,7 +1240,7 @@
         <v>0.89473684210526305</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1220,7 +1254,7 @@
         <v>0.87096774193548299</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -1234,7 +1268,7 @@
         <v>0.87050359712230196</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1248,7 +1282,7 @@
         <v>0.86792452830188604</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -1262,7 +1296,7 @@
         <v>0.86092715231787997</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -1276,7 +1310,7 @@
         <v>0.85714285714285698</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -1290,7 +1324,7 @@
         <v>0.85549132947976803</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1304,7 +1338,7 @@
         <v>0.85405405405405399</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>134</v>
       </c>
@@ -1318,7 +1352,7 @@
         <v>0.85294117647058798</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1332,7 +1366,7 @@
         <v>0.84848484848484795</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1346,7 +1380,7 @@
         <v>0.84282907662082496</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>220</v>
       </c>
@@ -1360,7 +1394,7 @@
         <v>0.83168316831683098</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1374,7 +1408,7 @@
         <v>0.83127572016460904</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1388,7 +1422,7 @@
         <v>0.82658959537572196</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -1402,7 +1436,7 @@
         <v>0.82352941176470495</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1416,7 +1450,7 @@
         <v>0.81481481481481399</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -1430,7 +1464,7 @@
         <v>0.80981595092024505</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>98</v>
       </c>
@@ -1444,7 +1478,7 @@
         <v>0.80555555555555503</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>146</v>
       </c>
@@ -1458,7 +1492,7 @@
         <v>0.80555555555555503</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -1472,7 +1506,7 @@
         <v>0.80451127819548796</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1486,7 +1520,7 @@
         <v>0.80132450331125804</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -1500,7 +1534,7 @@
         <v>0.79436619718309798</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1514,7 +1548,7 @@
         <v>0.79166666666666596</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1528,7 +1562,7 @@
         <v>0.78985507246376796</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1542,7 +1576,7 @@
         <v>0.78260869565217395</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -1556,7 +1590,7 @@
         <v>0.77300613496932502</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -1570,7 +1604,7 @@
         <v>0.75842696629213402</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -1584,7 +1618,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1598,7 +1632,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>125</v>
       </c>
@@ -1612,7 +1646,7 @@
         <v>0.74324324324324298</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -1626,7 +1660,7 @@
         <v>0.74261603375527396</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>116</v>
       </c>
@@ -1640,7 +1674,7 @@
         <v>0.74226804123711299</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -1654,7 +1688,7 @@
         <v>0.73554913294797597</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -1668,7 +1702,7 @@
         <v>0.73303167420814397</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>159</v>
       </c>
@@ -1682,7 +1716,7 @@
         <v>0.72972972972972905</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -1696,7 +1730,7 @@
         <v>0.72972972972972905</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -1710,7 +1744,7 @@
         <v>0.719780219780219</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>71</v>
       </c>
@@ -1724,7 +1758,7 @@
         <v>0.71676300578034602</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -1738,7 +1772,7 @@
         <v>0.71604938271604901</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -1752,7 +1786,7 @@
         <v>0.70909090909090899</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -1766,7 +1800,7 @@
         <v>0.70370370370370305</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1780,7 +1814,7 @@
         <v>0.70186335403726696</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>116</v>
       </c>
@@ -1794,7 +1828,7 @@
         <v>0.70103092783505105</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>71</v>
       </c>
@@ -1808,7 +1842,7 @@
         <v>0.69364161849710904</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -1822,7 +1856,7 @@
         <v>0.69298245614035003</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -1836,7 +1870,7 @@
         <v>0.69135802469135799</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>168</v>
       </c>
@@ -1850,7 +1884,7 @@
         <v>0.68103448275862</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -1864,7 +1898,7 @@
         <v>0.67115902964959495</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -1878,7 +1912,7 @@
         <v>0.66983372921615203</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>18</v>
       </c>
@@ -1892,7 +1926,7 @@
         <v>0.66782307025151699</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>96</v>
       </c>
@@ -1906,7 +1940,7 @@
         <v>0.66666666666666596</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>40</v>
       </c>
@@ -1920,7 +1954,7 @@
         <v>0.65158371040723895</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>40</v>
       </c>
@@ -1934,7 +1968,7 @@
         <v>0.65158371040723895</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>26</v>
       </c>
@@ -1948,7 +1982,7 @@
         <v>0.64236111111111105</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>146</v>
       </c>
@@ -1962,7 +1996,7 @@
         <v>0.64236111111111105</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>145</v>
       </c>
@@ -1976,7 +2010,7 @@
         <v>0.64215686274509798</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -1990,7 +2024,7 @@
         <v>0.62742175856929905</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -2004,7 +2038,7 @@
         <v>0.62427745664739798</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -2018,7 +2052,7 @@
         <v>0.62427745664739798</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>29</v>
       </c>
@@ -2032,7 +2066,7 @@
         <v>0.61994219653179194</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -2046,7 +2080,7 @@
         <v>0.61062648691514598</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>20</v>
       </c>
@@ -2060,7 +2094,7 @@
         <v>0.60916442048517505</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>116</v>
       </c>
@@ -2074,7 +2108,7 @@
         <v>0.597938144329896</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>219</v>
       </c>
@@ -2088,7 +2122,7 @@
         <v>0.59574468085106302</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2102,7 +2136,7 @@
         <v>0.59405940594059403</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -2116,7 +2150,7 @@
         <v>0.58745874587458702</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>52</v>
       </c>
@@ -2130,7 +2164,7 @@
         <v>0.55774647887323903</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>69</v>
       </c>
@@ -2144,7 +2178,7 @@
         <v>0.55752212389380496</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -2158,7 +2192,7 @@
         <v>0.55714285714285705</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>37</v>
       </c>
@@ -2172,7 +2206,7 @@
         <v>0.556962025316455</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -2186,7 +2220,7 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>146</v>
       </c>
@@ -2200,7 +2234,7 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>25</v>
       </c>
@@ -2214,7 +2248,7 @@
         <v>0.53495440729483201</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -2228,7 +2262,7 @@
         <v>0.53465346534653402</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -2242,7 +2276,7 @@
         <v>0.53012048192771</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>16</v>
       </c>
@@ -2256,7 +2290,7 @@
         <v>0.52906110283159402</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>40</v>
       </c>
@@ -2270,7 +2304,7 @@
         <v>0.52488687782805399</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>40</v>
       </c>
@@ -2284,7 +2318,7 @@
         <v>0.51583710407239802</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -2298,7 +2332,7 @@
         <v>0.51028806584362096</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -2313,7 +2347,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D89" xr:uid="{6BE270DF-7FDE-44B8-B88A-9EF85DEC6A4A}"/>
+  <autoFilter ref="A1:D89"/>
   <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -2332,22 +2366,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F40C36B-38D8-4603-BDD3-E980F41D879D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:D563"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="68.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2361,7 +2398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>218</v>
       </c>
@@ -2375,7 +2412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>217</v>
       </c>
@@ -2389,7 +2426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>162</v>
       </c>
@@ -2403,7 +2440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -2417,7 +2454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>216</v>
       </c>
@@ -2431,7 +2468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -2445,7 +2482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -2459,7 +2496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -2473,7 +2510,7 @@
         <v>0.99346405228758095</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>215</v>
       </c>
@@ -2487,7 +2524,7 @@
         <v>0.99310344827586206</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>142</v>
       </c>
@@ -2501,7 +2538,7 @@
         <v>0.99305555555555503</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -2515,7 +2552,7 @@
         <v>0.99259259259259203</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>173</v>
       </c>
@@ -2529,7 +2566,7 @@
         <v>0.992307692307692</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>210</v>
       </c>
@@ -2543,7 +2580,7 @@
         <v>0.99159663865546199</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>214</v>
       </c>
@@ -2557,7 +2594,7 @@
         <v>0.99152542372881303</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>151</v>
       </c>
@@ -2571,7 +2608,7 @@
         <v>0.99152542372881303</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>213</v>
       </c>
@@ -2585,7 +2622,7 @@
         <v>0.99137931034482696</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>179</v>
       </c>
@@ -2599,7 +2636,7 @@
         <v>0.99090909090909096</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>200</v>
       </c>
@@ -2613,7 +2650,7 @@
         <v>0.99038461538461497</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>212</v>
       </c>
@@ -2627,7 +2664,7 @@
         <v>0.99009900990098998</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>211</v>
       </c>
@@ -2641,7 +2678,7 @@
         <v>0.989304812834224</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -2655,7 +2692,7 @@
         <v>0.98802395209580796</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>139</v>
       </c>
@@ -2669,7 +2706,7 @@
         <v>0.98648648648648596</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -2683,7 +2720,7 @@
         <v>0.98477157360405998</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>198</v>
       </c>
@@ -2697,7 +2734,7 @@
         <v>0.98333333333333295</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>210</v>
       </c>
@@ -2711,7 +2748,7 @@
         <v>0.98319327731092399</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>210</v>
       </c>
@@ -2725,7 +2762,7 @@
         <v>0.98319327731092399</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>209</v>
       </c>
@@ -2739,7 +2776,7 @@
         <v>0.98255813953488302</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>208</v>
       </c>
@@ -2753,7 +2790,7 @@
         <v>0.98170731707317005</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -2767,7 +2804,7 @@
         <v>0.97945205479452002</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -2781,7 +2818,7 @@
         <v>0.97916666666666596</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>160</v>
       </c>
@@ -2795,7 +2832,7 @@
         <v>0.97727272727272696</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>207</v>
       </c>
@@ -2809,7 +2846,7 @@
         <v>0.97687861271676302</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>197</v>
       </c>
@@ -2823,7 +2860,7 @@
         <v>0.97478991596638598</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>206</v>
       </c>
@@ -2837,7 +2874,7 @@
         <v>0.97457627118643997</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>155</v>
       </c>
@@ -2851,7 +2888,7 @@
         <v>0.97435897435897401</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>105</v>
       </c>
@@ -2865,7 +2902,7 @@
         <v>0.973856209150326</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>205</v>
       </c>
@@ -2879,7 +2916,7 @@
         <v>0.97368421052631504</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -2893,7 +2930,7 @@
         <v>0.97368421052631504</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>128</v>
       </c>
@@ -2907,7 +2944,7 @@
         <v>0.97297297297297303</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>204</v>
       </c>
@@ -2921,7 +2958,7 @@
         <v>0.972727272727272</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>127</v>
       </c>
@@ -2935,7 +2972,7 @@
         <v>0.97260273972602695</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>182</v>
       </c>
@@ -2949,7 +2986,7 @@
         <v>0.97247706422018299</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -2963,7 +3000,7 @@
         <v>0.972413793103448</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -2977,7 +3014,7 @@
         <v>0.972413793103448</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>193</v>
       </c>
@@ -2991,7 +3028,7 @@
         <v>0.97191011235955005</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>203</v>
       </c>
@@ -3005,7 +3042,7 @@
         <v>0.970873786407767</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>164</v>
       </c>
@@ -3019,7 +3056,7 @@
         <v>0.96992481203007497</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -3033,7 +3070,7 @@
         <v>0.96956521739130397</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>106</v>
       </c>
@@ -3047,7 +3084,7 @@
         <v>0.96732026143790795</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>198</v>
       </c>
@@ -3061,7 +3098,7 @@
         <v>0.96666666666666601</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -3075,7 +3112,7 @@
         <v>0.966480446927374</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -3089,7 +3126,7 @@
         <v>0.96638655462184797</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>193</v>
       </c>
@@ -3103,7 +3140,7 @@
         <v>0.96629213483146004</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>128</v>
       </c>
@@ -3117,7 +3154,7 @@
         <v>0.96621621621621601</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>151</v>
       </c>
@@ -3131,7 +3168,7 @@
         <v>0.96610169491525399</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>202</v>
       </c>
@@ -3145,7 +3182,7 @@
         <v>0.96610169491525399</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>151</v>
       </c>
@@ -3159,7 +3196,7 @@
         <v>0.96610169491525399</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>176</v>
       </c>
@@ -3173,7 +3210,7 @@
         <v>0.96610169491525399</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>201</v>
       </c>
@@ -3187,7 +3224,7 @@
         <v>0.96581196581196505</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>83</v>
       </c>
@@ -3201,7 +3238,7 @@
         <v>0.96521739130434703</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>47</v>
       </c>
@@ -3215,7 +3252,7 @@
         <v>0.96385542168674698</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>158</v>
       </c>
@@ -3229,7 +3266,7 @@
         <v>0.96376811594202805</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>179</v>
       </c>
@@ -3243,7 +3280,7 @@
         <v>0.96363636363636296</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>179</v>
       </c>
@@ -3257,7 +3294,7 @@
         <v>0.96363636363636296</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>200</v>
       </c>
@@ -3271,7 +3308,7 @@
         <v>0.96153846153846101</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>200</v>
       </c>
@@ -3285,7 +3322,7 @@
         <v>0.96153846153846101</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>88</v>
       </c>
@@ -3299,7 +3336,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>123</v>
       </c>
@@ -3313,7 +3350,7 @@
         <v>0.95945945945945899</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>199</v>
       </c>
@@ -3327,7 +3364,7 @@
         <v>0.95901639344262202</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>198</v>
       </c>
@@ -3341,7 +3378,7 @@
         <v>0.95833333333333304</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>140</v>
       </c>
@@ -3355,7 +3392,7 @@
         <v>0.95804195804195802</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>197</v>
       </c>
@@ -3369,7 +3406,7 @@
         <v>0.95798319327731096</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>44</v>
       </c>
@@ -3383,7 +3420,7 @@
         <v>0.95798319327731096</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>196</v>
       </c>
@@ -3397,7 +3434,7 @@
         <v>0.95762711864406702</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>195</v>
       </c>
@@ -3411,7 +3448,7 @@
         <v>0.95689655172413701</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>27</v>
       </c>
@@ -3425,7 +3462,7 @@
         <v>0.95652173913043403</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>96</v>
       </c>
@@ -3439,7 +3476,7 @@
         <v>0.95530726256983201</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -3453,7 +3490,7 @@
         <v>0.95473251028806505</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>194</v>
       </c>
@@ -3467,7 +3504,7 @@
         <v>0.95454545454545403</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>106</v>
       </c>
@@ -3481,7 +3518,7 @@
         <v>0.95424836601307195</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>99</v>
       </c>
@@ -3495,7 +3532,7 @@
         <v>0.95375722543352603</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -3509,7 +3546,7 @@
         <v>0.95360824742268002</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>188</v>
       </c>
@@ -3523,7 +3560,7 @@
         <v>0.95161290322580605</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>193</v>
       </c>
@@ -3537,7 +3574,7 @@
         <v>0.949438202247191</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>58</v>
       </c>
@@ -3551,7 +3588,7 @@
         <v>0.949238578680203</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>80</v>
       </c>
@@ -3565,7 +3602,7 @@
         <v>0.94915254237288105</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -3579,7 +3616,7 @@
         <v>0.94736842105263097</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>192</v>
       </c>
@@ -3593,7 +3630,7 @@
         <v>0.946938775510204</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>20</v>
       </c>
@@ -3607,7 +3644,7 @@
         <v>0.94636015325670497</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>191</v>
       </c>
@@ -3621,7 +3658,7 @@
         <v>0.94594594594594505</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>190</v>
       </c>
@@ -3635,7 +3672,7 @@
         <v>0.94545454545454499</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>189</v>
       </c>
@@ -3649,7 +3686,7 @@
         <v>0.94495412844036697</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>188</v>
       </c>
@@ -3663,7 +3700,7 @@
         <v>0.94354838709677402</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>152</v>
       </c>
@@ -3677,7 +3714,7 @@
         <v>0.94202898550724601</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>147</v>
       </c>
@@ -3691,7 +3728,7 @@
         <v>0.94160583941605802</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>125</v>
       </c>
@@ -3705,7 +3742,7 @@
         <v>0.94152046783625698</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>51</v>
       </c>
@@ -3719,7 +3756,7 @@
         <v>0.94117647058823495</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>51</v>
       </c>
@@ -3733,7 +3770,7 @@
         <v>0.94117647058823495</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>169</v>
       </c>
@@ -3747,7 +3784,7 @@
         <v>0.94067796610169496</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -3761,7 +3798,7 @@
         <v>0.94029850746268595</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>58</v>
       </c>
@@ -3775,7 +3812,7 @@
         <v>0.93908629441624303</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>71</v>
       </c>
@@ -3789,7 +3826,7 @@
         <v>0.93908629441624303</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>134</v>
       </c>
@@ -3803,7 +3840,7 @@
         <v>0.93867924528301805</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>187</v>
       </c>
@@ -3817,7 +3854,7 @@
         <v>0.93859649122806998</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>97</v>
       </c>
@@ -3831,7 +3868,7 @@
         <v>0.93589743589743501</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -3845,7 +3882,7 @@
         <v>0.93511450381679295</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>152</v>
       </c>
@@ -3859,7 +3896,7 @@
         <v>0.934782608695652</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>89</v>
       </c>
@@ -3873,7 +3910,7 @@
         <v>0.934782608695652</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>92</v>
       </c>
@@ -3887,7 +3924,7 @@
         <v>0.93333333333333302</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>92</v>
       </c>
@@ -3901,7 +3938,7 @@
         <v>0.93333333333333302</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>149</v>
       </c>
@@ -3915,7 +3952,7 @@
         <v>0.93333333333333302</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>34</v>
       </c>
@@ -3929,7 +3966,7 @@
         <v>0.93298969072164895</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>64</v>
       </c>
@@ -3943,7 +3980,7 @@
         <v>0.93296089385474801</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>186</v>
       </c>
@@ -3957,7 +3994,7 @@
         <v>0.93277310924369705</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>44</v>
       </c>
@@ -3971,7 +4008,7 @@
         <v>0.93277310924369705</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>169</v>
       </c>
@@ -3985,7 +4022,7 @@
         <v>0.93220338983050799</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>176</v>
       </c>
@@ -3999,7 +4036,7 @@
         <v>0.93220338983050799</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>138</v>
       </c>
@@ -4013,7 +4050,7 @@
         <v>0.93129770992366401</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>62</v>
       </c>
@@ -4027,7 +4064,7 @@
         <v>0.93125000000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>185</v>
       </c>
@@ -4041,7 +4078,7 @@
         <v>0.929824561403508</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>184</v>
       </c>
@@ -4055,7 +4092,7 @@
         <v>0.929824561403508</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>26</v>
       </c>
@@ -4069,7 +4106,7 @@
         <v>0.92828685258964105</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>53</v>
       </c>
@@ -4083,7 +4120,7 @@
         <v>0.92817679558011001</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>106</v>
       </c>
@@ -4097,7 +4134,7 @@
         <v>0.92810457516339795</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -4111,7 +4148,7 @@
         <v>0.92748091603053395</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>22</v>
       </c>
@@ -4125,7 +4162,7 @@
         <v>0.92696629213483095</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>129</v>
       </c>
@@ -4139,7 +4176,7 @@
         <v>0.92617449664429496</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>146</v>
       </c>
@@ -4153,7 +4190,7 @@
         <v>0.92531120331950201</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>68</v>
       </c>
@@ -4167,7 +4204,7 @@
         <v>0.924050632911392</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>140</v>
       </c>
@@ -4181,7 +4218,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>64</v>
       </c>
@@ -4195,7 +4232,7 @@
         <v>0.92178770949720601</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>47</v>
       </c>
@@ -4209,7 +4246,7 @@
         <v>0.92168674698795106</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>183</v>
       </c>
@@ -4223,7 +4260,7 @@
         <v>0.91891891891891897</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>66</v>
       </c>
@@ -4237,7 +4274,7 @@
         <v>0.91860465116279</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>179</v>
       </c>
@@ -4251,7 +4288,7 @@
         <v>0.91818181818181799</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>182</v>
       </c>
@@ -4265,7 +4302,7 @@
         <v>0.91743119266054995</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>63</v>
       </c>
@@ -4279,7 +4316,7 @@
         <v>0.91620111731843501</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>181</v>
       </c>
@@ -4293,7 +4330,7 @@
         <v>0.91596638655462104</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>135</v>
       </c>
@@ -4307,7 +4344,7 @@
         <v>0.91472868217054204</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>52</v>
       </c>
@@ -4321,7 +4358,7 @@
         <v>0.91262135922330101</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>34</v>
       </c>
@@ -4335,7 +4372,7 @@
         <v>0.91237113402061798</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>180</v>
       </c>
@@ -4349,7 +4386,7 @@
         <v>0.91129032258064502</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>179</v>
       </c>
@@ -4363,7 +4400,7 @@
         <v>0.90909090909090895</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>14</v>
       </c>
@@ -4377,7 +4414,7 @@
         <v>0.90879478827361504</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>70</v>
       </c>
@@ -4391,7 +4428,7 @@
         <v>0.90849673202614301</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>91</v>
       </c>
@@ -4405,7 +4442,7 @@
         <v>0.90810810810810805</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>178</v>
       </c>
@@ -4419,7 +4456,7 @@
         <v>0.90697674418604601</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>177</v>
       </c>
@@ -4433,7 +4470,7 @@
         <v>0.90697674418604601</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>66</v>
       </c>
@@ -4447,7 +4484,7 @@
         <v>0.90697674418604601</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>176</v>
       </c>
@@ -4461,7 +4498,7 @@
         <v>0.90677966101694896</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>175</v>
       </c>
@@ -4475,7 +4512,7 @@
         <v>0.90476190476190399</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>9</v>
       </c>
@@ -4489,7 +4526,7 @@
         <v>0.90283400809716596</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>65</v>
       </c>
@@ -4503,7 +4540,7 @@
         <v>0.90259740259740195</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>140</v>
       </c>
@@ -4517,7 +4554,7 @@
         <v>0.90209790209790197</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>29</v>
       </c>
@@ -4531,7 +4568,7 @@
         <v>0.90171990171990102</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>174</v>
       </c>
@@ -4545,7 +4582,7 @@
         <v>0.90082644628099096</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>173</v>
       </c>
@@ -4559,7 +4596,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>173</v>
       </c>
@@ -4573,7 +4610,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>96</v>
       </c>
@@ -4587,7 +4624,7 @@
         <v>0.89944134078212201</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>6</v>
       </c>
@@ -4601,7 +4638,7 @@
         <v>0.89918256130790097</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>172</v>
       </c>
@@ -4615,7 +4652,7 @@
         <v>0.89830508474576198</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>47</v>
       </c>
@@ -4629,7 +4666,7 @@
         <v>0.89759036144578297</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>171</v>
       </c>
@@ -4643,7 +4680,7 @@
         <v>0.89473684210526305</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>170</v>
       </c>
@@ -4657,7 +4694,7 @@
         <v>0.89147286821705396</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>169</v>
       </c>
@@ -4671,7 +4708,7 @@
         <v>0.88983050847457601</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>28</v>
       </c>
@@ -4685,7 +4722,7 @@
         <v>0.88888888888888795</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>71</v>
       </c>
@@ -4699,7 +4736,7 @@
         <v>0.88832487309644603</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>76</v>
       </c>
@@ -4713,7 +4750,7 @@
         <v>0.88819875776397506</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>168</v>
       </c>
@@ -4727,7 +4764,7 @@
         <v>0.88789237668161403</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>164</v>
       </c>
@@ -4741,7 +4778,7 @@
         <v>0.88721804511278102</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>167</v>
       </c>
@@ -4755,7 +4792,7 @@
         <v>0.88721804511278102</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>166</v>
       </c>
@@ -4769,7 +4806,7 @@
         <v>0.88695652173912998</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>118</v>
       </c>
@@ -4783,7 +4820,7 @@
         <v>0.88690476190476097</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>40</v>
       </c>
@@ -4797,7 +4834,7 @@
         <v>0.88666666666666605</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>10</v>
       </c>
@@ -4811,7 +4848,7 @@
         <v>0.88549618320610601</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>89</v>
       </c>
@@ -4825,7 +4862,7 @@
         <v>0.88405797101449202</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>51</v>
       </c>
@@ -4839,7 +4876,7 @@
         <v>0.88235294117647001</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>102</v>
       </c>
@@ -4853,7 +4890,7 @@
         <v>0.88157894736842102</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>151</v>
       </c>
@@ -4867,7 +4904,7 @@
         <v>0.88135593220338904</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>165</v>
       </c>
@@ -4881,7 +4918,7 @@
         <v>0.88135593220338904</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>20</v>
       </c>
@@ -4895,7 +4932,7 @@
         <v>0.88122605363984596</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>155</v>
       </c>
@@ -4909,7 +4946,7 @@
         <v>0.88034188034187999</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>164</v>
       </c>
@@ -4923,7 +4960,7 @@
         <v>0.87969924812029998</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>160</v>
       </c>
@@ -4937,7 +4974,7 @@
         <v>0.87878787878787801</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>55</v>
       </c>
@@ -4951,7 +4988,7 @@
         <v>0.87804878048780399</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>46</v>
       </c>
@@ -4965,7 +5002,7 @@
         <v>0.87735849056603699</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>162</v>
       </c>
@@ -4979,7 +5016,7 @@
         <v>0.87719298245613997</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>163</v>
       </c>
@@ -4993,7 +5030,7 @@
         <v>0.87719298245613997</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>162</v>
       </c>
@@ -5007,7 +5044,7 @@
         <v>0.87719298245613997</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>98</v>
       </c>
@@ -5021,7 +5058,7 @@
         <v>0.876651982378854</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>42</v>
       </c>
@@ -5035,7 +5072,7 @@
         <v>0.87593984962406002</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>51</v>
       </c>
@@ -5049,7 +5086,7 @@
         <v>0.87581699346405195</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>84</v>
       </c>
@@ -5063,7 +5100,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>85</v>
       </c>
@@ -5077,7 +5114,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>84</v>
       </c>
@@ -5091,7 +5128,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>29</v>
       </c>
@@ -5105,7 +5142,7 @@
         <v>0.87469287469287405</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>88</v>
       </c>
@@ -5119,7 +5156,7 @@
         <v>0.874285714285714</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>149</v>
       </c>
@@ -5133,7 +5170,7 @@
         <v>0.874074074074074</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>151</v>
       </c>
@@ -5147,7 +5184,7 @@
         <v>0.87288135593220295</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>161</v>
       </c>
@@ -5161,7 +5198,7 @@
         <v>0.87288135593220295</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>55</v>
       </c>
@@ -5175,7 +5212,7 @@
         <v>0.87195121951219501</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>160</v>
       </c>
@@ -5189,7 +5226,7 @@
         <v>0.87121212121212099</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>103</v>
       </c>
@@ -5203,7 +5240,7 @@
         <v>0.870056497175141</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>116</v>
       </c>
@@ -5217,7 +5254,7 @@
         <v>0.86973180076628298</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>34</v>
       </c>
@@ -5231,7 +5268,7 @@
         <v>0.865979381443299</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>159</v>
       </c>
@@ -5245,7 +5282,7 @@
         <v>0.86486486486486402</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>103</v>
       </c>
@@ -5259,7 +5296,7 @@
         <v>0.86440677966101698</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>158</v>
       </c>
@@ -5273,7 +5310,7 @@
         <v>0.86231884057970998</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>23</v>
       </c>
@@ -5287,7 +5324,7 @@
         <v>0.86144578313252995</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>147</v>
       </c>
@@ -5301,7 +5338,7 @@
         <v>0.86131386861313797</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>157</v>
       </c>
@@ -5315,7 +5352,7 @@
         <v>0.86065573770491799</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>72</v>
       </c>
@@ -5329,7 +5366,7 @@
         <v>0.85987261146496796</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>146</v>
       </c>
@@ -5343,7 +5380,7 @@
         <v>0.85892116182572598</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>133</v>
       </c>
@@ -5357,7 +5394,7 @@
         <v>0.85714285714285698</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>75</v>
       </c>
@@ -5371,7 +5408,7 @@
         <v>0.85714285714285698</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>156</v>
       </c>
@@ -5385,7 +5422,7 @@
         <v>0.85638297872340396</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>152</v>
       </c>
@@ -5399,7 +5436,7 @@
         <v>0.85507246376811596</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>107</v>
       </c>
@@ -5413,7 +5450,7 @@
         <v>0.85507246376811596</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>155</v>
       </c>
@@ -5427,7 +5464,7 @@
         <v>0.854700854700854</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>39</v>
       </c>
@@ -5441,7 +5478,7 @@
         <v>0.85454545454545405</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>20</v>
       </c>
@@ -5455,7 +5492,7 @@
         <v>0.854406130268199</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>125</v>
       </c>
@@ -5469,7 +5506,7 @@
         <v>0.85380116959064301</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>71</v>
       </c>
@@ -5483,7 +5520,7 @@
         <v>0.85279187817258795</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>135</v>
       </c>
@@ -5497,7 +5534,7 @@
         <v>0.85271317829457305</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>18</v>
       </c>
@@ -5511,7 +5548,7 @@
         <v>0.85148514851485102</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>88</v>
       </c>
@@ -5525,7 +5562,7 @@
         <v>0.85142857142857098</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>67</v>
       </c>
@@ -5539,7 +5576,7 @@
         <v>0.84978540772532096</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>154</v>
       </c>
@@ -5553,7 +5590,7 @@
         <v>0.84924623115577802</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>153</v>
       </c>
@@ -5567,7 +5604,7 @@
         <v>0.84883720930232498</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>152</v>
       </c>
@@ -5581,7 +5618,7 @@
         <v>0.84782608695652095</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>152</v>
       </c>
@@ -5595,7 +5632,7 @@
         <v>0.84782608695652095</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>89</v>
       </c>
@@ -5609,7 +5646,7 @@
         <v>0.84782608695652095</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>151</v>
       </c>
@@ -5623,7 +5660,7 @@
         <v>0.84745762711864403</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>151</v>
       </c>
@@ -5637,7 +5674,7 @@
         <v>0.84745762711864403</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>119</v>
       </c>
@@ -5651,7 +5688,7 @@
         <v>0.84523809523809501</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>150</v>
       </c>
@@ -5665,7 +5702,7 @@
         <v>0.84496124031007702</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>149</v>
       </c>
@@ -5679,7 +5716,7 @@
         <v>0.844444444444444</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>148</v>
       </c>
@@ -5693,7 +5730,7 @@
         <v>0.844444444444444</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>11</v>
       </c>
@@ -5707,7 +5744,7 @@
         <v>0.84431137724550898</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>11</v>
       </c>
@@ -5721,7 +5758,7 @@
         <v>0.84431137724550898</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>71</v>
       </c>
@@ -5735,7 +5772,7 @@
         <v>0.84263959390862897</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>138</v>
       </c>
@@ -5749,7 +5786,7 @@
         <v>0.83969465648854902</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>147</v>
       </c>
@@ -5763,7 +5800,7 @@
         <v>0.83941605839416</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>140</v>
       </c>
@@ -5777,7 +5814,7 @@
         <v>0.83916083916083895</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>42</v>
       </c>
@@ -5791,7 +5828,7 @@
         <v>0.83834586466165395</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>40</v>
       </c>
@@ -5805,7 +5842,7 @@
         <v>0.836666666666666</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>109</v>
       </c>
@@ -5819,7 +5856,7 @@
         <v>0.83625730994152003</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>99</v>
       </c>
@@ -5833,7 +5870,7 @@
         <v>0.83236994219653104</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>43</v>
       </c>
@@ -5847,7 +5884,7 @@
         <v>0.82978723404255295</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>41</v>
       </c>
@@ -5861,7 +5898,7 @@
         <v>0.82978723404255295</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>41</v>
       </c>
@@ -5875,7 +5912,7 @@
         <v>0.82978723404255295</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>69</v>
       </c>
@@ -5889,7 +5926,7 @@
         <v>0.82959641255605299</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>102</v>
       </c>
@@ -5903,7 +5940,7 @@
         <v>0.82894736842105199</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>50</v>
       </c>
@@ -5917,7 +5954,7 @@
         <v>0.82822085889570496</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>8</v>
       </c>
@@ -5931,7 +5968,7 @@
         <v>0.828125</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>110</v>
       </c>
@@ -5945,7 +5982,7 @@
         <v>0.82733812949640195</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>63</v>
       </c>
@@ -5959,7 +5996,7 @@
         <v>0.82681564245810002</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>140</v>
       </c>
@@ -5973,7 +6010,7 @@
         <v>0.82517482517482499</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>80</v>
       </c>
@@ -5987,7 +6024,7 @@
         <v>0.82485875706214595</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>26</v>
       </c>
@@ -6001,7 +6038,7 @@
         <v>0.824701195219123</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>51</v>
       </c>
@@ -6015,7 +6052,7 @@
         <v>0.82352941176470495</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>51</v>
       </c>
@@ -6029,7 +6066,7 @@
         <v>0.82352941176470495</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>32</v>
       </c>
@@ -6043,7 +6080,7 @@
         <v>0.82269503546099199</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>146</v>
       </c>
@@ -6057,7 +6094,7 @@
         <v>0.82157676348547704</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>145</v>
       </c>
@@ -6071,7 +6108,7 @@
         <v>0.82142857142857095</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>45</v>
       </c>
@@ -6085,7 +6122,7 @@
         <v>0.82068965517241299</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>4</v>
       </c>
@@ -6099,7 +6136,7 @@
         <v>0.81976744186046502</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>57</v>
       </c>
@@ -6113,7 +6150,7 @@
         <v>0.81944444444444398</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>144</v>
       </c>
@@ -6127,7 +6164,7 @@
         <v>0.81884057971014401</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>143</v>
       </c>
@@ -6141,7 +6178,7 @@
         <v>0.81818181818181801</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>94</v>
       </c>
@@ -6155,7 +6192,7 @@
         <v>0.81818181818181801</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>53</v>
       </c>
@@ -6169,7 +6206,7 @@
         <v>0.81767955801104897</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>86</v>
       </c>
@@ -6183,7 +6220,7 @@
         <v>0.81756756756756699</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>134</v>
       </c>
@@ -6197,7 +6234,7 @@
         <v>0.81603773584905603</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>96</v>
       </c>
@@ -6211,7 +6248,7 @@
         <v>0.81564245810055802</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>99</v>
       </c>
@@ -6225,7 +6262,7 @@
         <v>0.81502890173410403</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>45</v>
       </c>
@@ -6239,7 +6276,7 @@
         <v>0.81379310344827505</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>7</v>
       </c>
@@ -6253,7 +6290,7 @@
         <v>0.81333333333333302</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>5</v>
       </c>
@@ -6267,7 +6304,7 @@
         <v>0.81304347826086898</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>57</v>
       </c>
@@ -6281,7 +6318,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>142</v>
       </c>
@@ -6295,7 +6332,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>142</v>
       </c>
@@ -6309,7 +6346,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>116</v>
       </c>
@@ -6323,7 +6360,7 @@
         <v>0.81226053639846696</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>71</v>
       </c>
@@ -6337,7 +6374,7 @@
         <v>0.81218274111675104</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>140</v>
       </c>
@@ -6351,7 +6388,7 @@
         <v>0.81118881118881103</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>78</v>
       </c>
@@ -6365,7 +6402,7 @@
         <v>0.81118881118881103</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>141</v>
       </c>
@@ -6379,7 +6416,7 @@
         <v>0.81097560975609695</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>29</v>
       </c>
@@ -6393,7 +6430,7 @@
         <v>0.81081081081080997</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>64</v>
       </c>
@@ -6407,7 +6444,7 @@
         <v>0.81005586592178702</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>21</v>
       </c>
@@ -6421,7 +6458,7 @@
         <v>0.80985915492957705</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>137</v>
       </c>
@@ -6435,7 +6472,7 @@
         <v>0.80821917808219101</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>104</v>
       </c>
@@ -6449,7 +6486,7 @@
         <v>0.80790960451977401</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>45</v>
       </c>
@@ -6463,7 +6500,7 @@
         <v>0.80689655172413699</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>45</v>
       </c>
@@ -6477,7 +6514,7 @@
         <v>0.80689655172413699</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>135</v>
       </c>
@@ -6491,7 +6528,7 @@
         <v>0.806201550387596</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>91</v>
       </c>
@@ -6505,7 +6542,7 @@
         <v>0.80540540540540495</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>64</v>
       </c>
@@ -6519,7 +6556,7 @@
         <v>0.80446927374301602</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>63</v>
       </c>
@@ -6533,7 +6570,7 @@
         <v>0.80446927374301602</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>5</v>
       </c>
@@ -6547,7 +6584,7 @@
         <v>0.80434782608695599</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>140</v>
       </c>
@@ -6561,7 +6598,7 @@
         <v>0.80419580419580405</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>139</v>
       </c>
@@ -6575,7 +6612,7 @@
         <v>0.80405405405405395</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>86</v>
       </c>
@@ -6589,7 +6626,7 @@
         <v>0.80405405405405395</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>40</v>
       </c>
@@ -6603,7 +6640,7 @@
         <v>0.80333333333333301</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>72</v>
       </c>
@@ -6617,7 +6654,7 @@
         <v>0.80254777070063699</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>80</v>
       </c>
@@ -6631,7 +6668,7 @@
         <v>0.80225988700564899</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>138</v>
       </c>
@@ -6645,7 +6682,7 @@
         <v>0.80152671755725102</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>137</v>
       </c>
@@ -6659,7 +6696,7 @@
         <v>0.80136986301369795</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>76</v>
       </c>
@@ -6673,7 +6710,7 @@
         <v>0.80124223602484401</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>8</v>
       </c>
@@ -6687,7 +6724,7 @@
         <v>0.79947916666666596</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>63</v>
       </c>
@@ -6701,7 +6738,7 @@
         <v>0.79888268156424502</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>136</v>
       </c>
@@ -6715,7 +6752,7 @@
         <v>0.79856115107913594</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>110</v>
       </c>
@@ -6729,7 +6766,7 @@
         <v>0.79856115107913594</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>135</v>
       </c>
@@ -6743,7 +6780,7 @@
         <v>0.79844961240309997</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>16</v>
       </c>
@@ -6757,7 +6794,7 @@
         <v>0.79814385150811995</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>128</v>
       </c>
@@ -6771,7 +6808,7 @@
         <v>0.79729729729729704</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>123</v>
       </c>
@@ -6785,7 +6822,7 @@
         <v>0.79729729729729704</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>134</v>
       </c>
@@ -6799,7 +6836,7 @@
         <v>0.79716981132075404</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>133</v>
       </c>
@@ -6813,7 +6850,7 @@
         <v>0.79699248120300703</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>132</v>
       </c>
@@ -6827,7 +6864,7 @@
         <v>0.79699248120300703</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>54</v>
       </c>
@@ -6841,7 +6878,7 @@
         <v>0.79569892473118198</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>127</v>
       </c>
@@ -6855,7 +6892,7 @@
         <v>0.79452054794520499</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>131</v>
       </c>
@@ -6869,7 +6906,7 @@
         <v>0.79365079365079305</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>130</v>
       </c>
@@ -6883,7 +6920,7 @@
         <v>0.79365079365079305</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>130</v>
       </c>
@@ -6897,7 +6934,7 @@
         <v>0.79365079365079305</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>101</v>
       </c>
@@ -6911,7 +6948,7 @@
         <v>0.79347826086956497</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>52</v>
       </c>
@@ -6925,7 +6962,7 @@
         <v>0.79288025889967595</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>55</v>
       </c>
@@ -6939,7 +6976,7 @@
         <v>0.792682926829268</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>36</v>
       </c>
@@ -6953,7 +6990,7 @@
         <v>0.79255319148936099</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>129</v>
       </c>
@@ -6967,7 +7004,7 @@
         <v>0.79194630872483196</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>85</v>
       </c>
@@ -6981,7 +7018,7 @@
         <v>0.79166666666666596</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>84</v>
       </c>
@@ -6995,7 +7032,7 @@
         <v>0.79166666666666596</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>84</v>
       </c>
@@ -7009,7 +7046,7 @@
         <v>0.79166666666666596</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>128</v>
       </c>
@@ -7023,7 +7060,7 @@
         <v>0.79054054054054002</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>128</v>
       </c>
@@ -7037,7 +7074,7 @@
         <v>0.79054054054054002</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>26</v>
       </c>
@@ -7051,7 +7088,7 @@
         <v>0.78884462151394397</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>34</v>
       </c>
@@ -7065,7 +7102,7 @@
         <v>0.78865979381443296</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>64</v>
       </c>
@@ -7079,7 +7116,7 @@
         <v>0.78770949720670302</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>64</v>
       </c>
@@ -7093,7 +7130,7 @@
         <v>0.78770949720670302</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>127</v>
       </c>
@@ -7107,7 +7144,7 @@
         <v>0.78767123287671204</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>24</v>
       </c>
@@ -7121,7 +7158,7 @@
         <v>0.78754578754578697</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>126</v>
       </c>
@@ -7135,7 +7172,7 @@
         <v>0.78666666666666596</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>55</v>
       </c>
@@ -7149,7 +7186,7 @@
         <v>0.78658536585365801</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>73</v>
       </c>
@@ -7163,7 +7200,7 @@
         <v>0.78596491228070098</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>9</v>
       </c>
@@ -7177,7 +7214,7 @@
         <v>0.78542510121457398</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>103</v>
       </c>
@@ -7191,7 +7228,7 @@
         <v>0.78531073446327604</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>53</v>
       </c>
@@ -7205,7 +7242,7 @@
         <v>0.78453038674033104</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>106</v>
       </c>
@@ -7219,7 +7256,7 @@
         <v>0.78431372549019596</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>39</v>
       </c>
@@ -7233,7 +7270,7 @@
         <v>0.78181818181818097</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>37</v>
       </c>
@@ -7247,7 +7284,7 @@
         <v>0.77948717948717905</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>11</v>
       </c>
@@ -7261,7 +7298,7 @@
         <v>0.77844311377245501</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>125</v>
       </c>
@@ -7275,7 +7312,7 @@
         <v>0.77777777777777701</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>124</v>
       </c>
@@ -7289,7 +7326,7 @@
         <v>0.77777777777777701</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>23</v>
       </c>
@@ -7303,7 +7340,7 @@
         <v>0.77710843373493899</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>123</v>
       </c>
@@ -7317,7 +7354,7 @@
         <v>0.77702702702702697</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>40</v>
       </c>
@@ -7331,7 +7368,7 @@
         <v>0.77666666666666595</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>71</v>
       </c>
@@ -7345,7 +7382,7 @@
         <v>0.77664974619289295</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>113</v>
       </c>
@@ -7359,7 +7396,7 @@
         <v>0.77397260273972601</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>115</v>
       </c>
@@ -7373,7 +7410,7 @@
         <v>0.77297297297297296</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>11</v>
       </c>
@@ -7387,7 +7424,7 @@
         <v>0.77245508982035904</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>122</v>
       </c>
@@ -7401,7 +7438,7 @@
         <v>0.77181208053691197</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>106</v>
       </c>
@@ -7415,7 +7452,7 @@
         <v>0.77124183006535896</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>51</v>
       </c>
@@ -7429,7 +7466,7 @@
         <v>0.77124183006535896</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>64</v>
       </c>
@@ -7443,7 +7480,7 @@
         <v>0.77094972067039103</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>63</v>
       </c>
@@ -7457,7 +7494,7 @@
         <v>0.77094972067039103</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>92</v>
       </c>
@@ -7471,7 +7508,7 @@
         <v>0.77037037037037004</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>121</v>
       </c>
@@ -7485,7 +7522,7 @@
         <v>0.77005347593582796</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>102</v>
       </c>
@@ -7499,7 +7536,7 @@
         <v>0.76973684210526305</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>37</v>
       </c>
@@ -7513,7 +7550,7 @@
         <v>0.76923076923076905</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>99</v>
       </c>
@@ -7527,7 +7564,7 @@
         <v>0.76878612716762995</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>100</v>
       </c>
@@ -7541,7 +7578,7 @@
         <v>0.76865671641791</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>120</v>
       </c>
@@ -7555,7 +7592,7 @@
         <v>0.76811594202898503</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>119</v>
       </c>
@@ -7569,7 +7606,7 @@
         <v>0.76785714285714202</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>118</v>
       </c>
@@ -7583,7 +7620,7 @@
         <v>0.76785714285714202</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>74</v>
       </c>
@@ -7597,7 +7634,7 @@
         <v>0.76744186046511598</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>90</v>
       </c>
@@ -7611,7 +7648,7 @@
         <v>0.76623376623376604</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>48</v>
       </c>
@@ -7625,7 +7662,7 @@
         <v>0.76510067114093905</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>108</v>
       </c>
@@ -7639,7 +7676,7 @@
         <v>0.76470588235294101</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>51</v>
       </c>
@@ -7653,7 +7690,7 @@
         <v>0.76470588235294101</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>92</v>
       </c>
@@ -7667,7 +7704,7 @@
         <v>0.76296296296296295</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>34</v>
       </c>
@@ -7681,7 +7718,7 @@
         <v>0.76288659793814395</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>117</v>
       </c>
@@ -7695,7 +7732,7 @@
         <v>0.76258992805755399</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>116</v>
       </c>
@@ -7709,7 +7746,7 @@
         <v>0.76245210727969304</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>94</v>
       </c>
@@ -7723,7 +7760,7 @@
         <v>0.76223776223776196</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>115</v>
       </c>
@@ -7737,7 +7774,7 @@
         <v>0.76216216216216204</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>114</v>
       </c>
@@ -7751,7 +7788,7 @@
         <v>0.76126126126126104</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>113</v>
       </c>
@@ -7765,7 +7802,7 @@
         <v>0.76027397260273899</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>48</v>
       </c>
@@ -7779,7 +7816,7 @@
         <v>0.75838926174496601</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>106</v>
       </c>
@@ -7793,7 +7830,7 @@
         <v>0.75816993464052196</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>105</v>
       </c>
@@ -7807,7 +7844,7 @@
         <v>0.75816993464052196</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>70</v>
       </c>
@@ -7821,7 +7858,7 @@
         <v>0.75816993464052196</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>98</v>
       </c>
@@ -7835,7 +7872,7 @@
         <v>0.75770925110132104</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>53</v>
       </c>
@@ -7849,7 +7886,7 @@
         <v>0.75690607734806603</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>86</v>
       </c>
@@ -7863,7 +7900,7 @@
         <v>0.75675675675675602</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>97</v>
       </c>
@@ -7877,7 +7914,7 @@
         <v>0.75641025641025605</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>71</v>
       </c>
@@ -7891,7 +7928,7 @@
         <v>0.756345177664974</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>112</v>
       </c>
@@ -7905,7 +7942,7 @@
         <v>0.75555555555555498</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>111</v>
       </c>
@@ -7919,7 +7956,7 @@
         <v>0.75543478260869501</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>110</v>
       </c>
@@ -7933,7 +7970,7 @@
         <v>0.75539568345323704</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>20</v>
       </c>
@@ -7947,7 +7984,7 @@
         <v>0.75478927203065105</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>109</v>
       </c>
@@ -7961,7 +7998,7 @@
         <v>0.75438596491228005</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>56</v>
       </c>
@@ -7975,7 +8012,7 @@
         <v>0.75438596491228005</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>88</v>
       </c>
@@ -7989,7 +8026,7 @@
         <v>0.754285714285714</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>108</v>
       </c>
@@ -8003,7 +8040,7 @@
         <v>0.75401069518716501</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>108</v>
       </c>
@@ -8017,7 +8054,7 @@
         <v>0.75401069518716501</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>107</v>
       </c>
@@ -8031,7 +8068,7 @@
         <v>0.75362318840579701</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>28</v>
       </c>
@@ -8045,7 +8082,7 @@
         <v>0.75362318840579701</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>77</v>
       </c>
@@ -8059,7 +8096,7 @@
         <v>0.75257731958762797</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>34</v>
       </c>
@@ -8073,7 +8110,7 @@
         <v>0.75257731958762797</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>60</v>
       </c>
@@ -8087,7 +8124,7 @@
         <v>0.75252525252525204</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>83</v>
       </c>
@@ -8101,7 +8138,7 @@
         <v>0.75217391304347803</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>106</v>
       </c>
@@ -8115,7 +8152,7 @@
         <v>0.75163398692810401</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>105</v>
       </c>
@@ -8129,7 +8166,7 @@
         <v>0.75163398692810401</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>104</v>
       </c>
@@ -8143,7 +8180,7 @@
         <v>0.75141242937853103</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>103</v>
       </c>
@@ -8157,7 +8194,7 @@
         <v>0.75141242937853103</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>58</v>
       </c>
@@ -8171,7 +8208,7 @@
         <v>0.75126903553299496</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>52</v>
       </c>
@@ -8185,7 +8222,7 @@
         <v>0.75080906148867299</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>102</v>
       </c>
@@ -8199,7 +8236,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>101</v>
       </c>
@@ -8213,7 +8250,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>14</v>
       </c>
@@ -8227,7 +8264,7 @@
         <v>0.749185667752443</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>9</v>
       </c>
@@ -8241,7 +8278,7 @@
         <v>0.748987854251012</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>92</v>
       </c>
@@ -8255,7 +8292,7 @@
         <v>0.74814814814814801</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>44</v>
       </c>
@@ -8269,7 +8306,7 @@
         <v>0.747899159663865</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>7</v>
       </c>
@@ -8283,7 +8320,7 @@
         <v>0.74666666666666603</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>100</v>
       </c>
@@ -8297,7 +8334,7 @@
         <v>0.74626865671641796</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>100</v>
       </c>
@@ -8311,7 +8348,7 @@
         <v>0.74626865671641796</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>80</v>
       </c>
@@ -8325,7 +8362,7 @@
         <v>0.74576271186440601</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>99</v>
       </c>
@@ -8339,7 +8376,7 @@
         <v>0.74566473988439297</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>51</v>
       </c>
@@ -8353,7 +8390,7 @@
         <v>0.74509803921568596</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>51</v>
       </c>
@@ -8367,7 +8404,7 @@
         <v>0.74509803921568596</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>70</v>
       </c>
@@ -8381,7 +8418,7 @@
         <v>0.74509803921568596</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>98</v>
       </c>
@@ -8395,7 +8432,7 @@
         <v>0.74449339207048404</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>42</v>
       </c>
@@ -8409,7 +8446,7 @@
         <v>0.744360902255639</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>97</v>
       </c>
@@ -8423,7 +8460,7 @@
         <v>0.74358974358974295</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>40</v>
       </c>
@@ -8437,7 +8474,7 @@
         <v>0.74333333333333296</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>20</v>
       </c>
@@ -8451,7 +8488,7 @@
         <v>0.74329501915708796</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>64</v>
       </c>
@@ -8465,7 +8502,7 @@
         <v>0.74301675977653603</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>96</v>
       </c>
@@ -8479,7 +8516,7 @@
         <v>0.74301675977653603</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>95</v>
       </c>
@@ -8493,7 +8530,7 @@
         <v>0.74226804123711299</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>94</v>
       </c>
@@ -8507,7 +8544,7 @@
         <v>0.74125874125874103</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>56</v>
       </c>
@@ -8521,7 +8558,7 @@
         <v>0.74122807017543801</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>93</v>
       </c>
@@ -8535,7 +8572,7 @@
         <v>0.74111675126903498</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>92</v>
       </c>
@@ -8549,7 +8586,7 @@
         <v>0.74074074074074003</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>92</v>
       </c>
@@ -8563,7 +8600,7 @@
         <v>0.74074074074074003</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>92</v>
       </c>
@@ -8577,7 +8614,7 @@
         <v>0.74074074074074003</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>91</v>
       </c>
@@ -8591,7 +8628,7 @@
         <v>0.74054054054053997</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>68</v>
       </c>
@@ -8605,7 +8642,7 @@
         <v>0.740506329113924</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>90</v>
       </c>
@@ -8619,7 +8656,7 @@
         <v>0.74025974025973995</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>7</v>
       </c>
@@ -8633,7 +8670,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>69</v>
       </c>
@@ -8647,7 +8684,7 @@
         <v>0.73991031390134498</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>27</v>
       </c>
@@ -8661,7 +8698,7 @@
         <v>0.73913043478260798</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>89</v>
       </c>
@@ -8675,7 +8712,7 @@
         <v>0.73913043478260798</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>28</v>
       </c>
@@ -8689,7 +8726,7 @@
         <v>0.73913043478260798</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>62</v>
       </c>
@@ -8703,7 +8740,7 @@
         <v>0.73750000000000004</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>88</v>
       </c>
@@ -8717,7 +8754,7 @@
         <v>0.73714285714285699</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>77</v>
       </c>
@@ -8731,7 +8768,7 @@
         <v>0.73711340206185505</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>34</v>
       </c>
@@ -8745,7 +8782,7 @@
         <v>0.73711340206185505</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>87</v>
       </c>
@@ -8759,7 +8796,7 @@
         <v>0.73684210526315697</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>86</v>
       </c>
@@ -8773,7 +8810,7 @@
         <v>0.73648648648648596</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>85</v>
       </c>
@@ -8787,7 +8824,7 @@
         <v>0.73611111111111105</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>84</v>
       </c>
@@ -8801,7 +8838,7 @@
         <v>0.73611111111111105</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>84</v>
       </c>
@@ -8815,7 +8852,7 @@
         <v>0.73611111111111105</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>58</v>
       </c>
@@ -8829,7 +8866,7 @@
         <v>0.73604060913705505</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>83</v>
       </c>
@@ -8843,7 +8880,7 @@
         <v>0.73478260869565204</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>82</v>
       </c>
@@ -8857,7 +8894,7 @@
         <v>0.73426573426573405</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>36</v>
       </c>
@@ -8871,7 +8908,7 @@
         <v>0.73404255319148903</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>81</v>
       </c>
@@ -8885,7 +8922,7 @@
         <v>0.73381294964028698</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>75</v>
       </c>
@@ -8899,7 +8936,7 @@
         <v>0.73291925465838503</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>34</v>
       </c>
@@ -8913,7 +8950,7 @@
         <v>0.731958762886597</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>58</v>
       </c>
@@ -8927,7 +8964,7 @@
         <v>0.730964467005076</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>58</v>
       </c>
@@ -8941,7 +8978,7 @@
         <v>0.730964467005076</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>19</v>
       </c>
@@ -8955,7 +8992,7 @@
         <v>0.730941704035874</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>80</v>
       </c>
@@ -8969,7 +9006,7 @@
         <v>0.72881355932203296</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>79</v>
       </c>
@@ -8983,7 +9020,7 @@
         <v>0.72844827586206895</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>78</v>
       </c>
@@ -8997,7 +9034,7 @@
         <v>0.72727272727272696</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>44</v>
       </c>
@@ -9011,7 +9048,7 @@
         <v>0.72689075630252098</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>77</v>
       </c>
@@ -9025,7 +9062,7 @@
         <v>0.72680412371133996</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>18</v>
       </c>
@@ -9039,7 +9076,7 @@
         <v>0.72673267326732605</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>76</v>
       </c>
@@ -9053,7 +9090,7 @@
         <v>0.72670807453416097</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>75</v>
       </c>
@@ -9067,7 +9104,7 @@
         <v>0.72670807453416097</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>8</v>
       </c>
@@ -9081,7 +9118,7 @@
         <v>0.7265625</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>73</v>
       </c>
@@ -9095,7 +9132,7 @@
         <v>0.72631578947368403</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>64</v>
       </c>
@@ -9109,7 +9146,7 @@
         <v>0.72625698324022303</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>63</v>
       </c>
@@ -9123,7 +9160,7 @@
         <v>0.72625698324022303</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>72</v>
       </c>
@@ -9137,7 +9174,7 @@
         <v>0.72611464968152795</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>5</v>
       </c>
@@ -9151,7 +9188,7 @@
         <v>0.72608695652173905</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>58</v>
       </c>
@@ -9165,7 +9202,7 @@
         <v>0.72588832487309596</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>71</v>
       </c>
@@ -9179,7 +9216,7 @@
         <v>0.72588832487309596</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>70</v>
       </c>
@@ -9193,7 +9230,7 @@
         <v>0.72549019607843102</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>49</v>
       </c>
@@ -9207,7 +9244,7 @@
         <v>0.72435897435897401</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>50</v>
       </c>
@@ -9221,7 +9258,7 @@
         <v>0.72392638036809798</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>14</v>
       </c>
@@ -9235,7 +9272,7 @@
         <v>0.72312703583061799</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>47</v>
       </c>
@@ -9249,7 +9286,7 @@
         <v>0.72289156626506001</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>44</v>
       </c>
@@ -9263,7 +9300,7 @@
         <v>0.72268907563025198</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>69</v>
       </c>
@@ -9277,7 +9314,7 @@
         <v>0.72197309417040301</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>68</v>
       </c>
@@ -9291,7 +9328,7 @@
         <v>0.721518987341772</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>67</v>
       </c>
@@ -9305,7 +9342,7 @@
         <v>0.72103004291845496</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>67</v>
       </c>
@@ -9319,7 +9356,7 @@
         <v>0.72103004291845496</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>66</v>
       </c>
@@ -9333,7 +9370,7 @@
         <v>0.72093023255813904</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>65</v>
       </c>
@@ -9347,7 +9384,7 @@
         <v>0.72077922077921996</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>64</v>
       </c>
@@ -9361,7 +9398,7 @@
         <v>0.72067039106145203</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>63</v>
       </c>
@@ -9375,7 +9412,7 @@
         <v>0.72067039106145203</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>27</v>
       </c>
@@ -9389,7 +9426,7 @@
         <v>0.71980676328502402</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>28</v>
       </c>
@@ -9403,7 +9440,7 @@
         <v>0.71980676328502402</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>51</v>
       </c>
@@ -9417,7 +9454,7 @@
         <v>0.71895424836601296</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>62</v>
       </c>
@@ -9431,7 +9468,7 @@
         <v>0.71875</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>30</v>
       </c>
@@ -9445,7 +9482,7 @@
         <v>0.71875</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>61</v>
       </c>
@@ -9459,7 +9496,7 @@
         <v>0.71748878923766801</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>5</v>
       </c>
@@ -9473,7 +9510,7 @@
         <v>0.71739130434782605</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>45</v>
       </c>
@@ -9487,7 +9524,7 @@
         <v>0.71724137931034404</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>60</v>
       </c>
@@ -9501,7 +9538,7 @@
         <v>0.71717171717171702</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>59</v>
       </c>
@@ -9515,7 +9552,7 @@
         <v>0.71710526315789402</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>46</v>
       </c>
@@ -9529,7 +9566,7 @@
         <v>0.71698113207547098</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>16</v>
       </c>
@@ -9543,7 +9580,7 @@
         <v>0.71693735498839894</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>23</v>
       </c>
@@ -9557,7 +9594,7 @@
         <v>0.71686746987951799</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>20</v>
       </c>
@@ -9571,7 +9608,7 @@
         <v>0.71647509578544</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>58</v>
       </c>
@@ -9585,7 +9622,7 @@
         <v>0.71573604060913698</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>58</v>
       </c>
@@ -9599,7 +9636,7 @@
         <v>0.71573604060913698</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>57</v>
       </c>
@@ -9613,7 +9650,7 @@
         <v>0.71527777777777701</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>15</v>
       </c>
@@ -9627,7 +9664,7 @@
         <v>0.715189873417721</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>46</v>
       </c>
@@ -9641,7 +9678,7 @@
         <v>0.713836477987421</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>55</v>
       </c>
@@ -9655,7 +9692,7 @@
         <v>0.71341463414634099</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>55</v>
       </c>
@@ -9669,7 +9706,7 @@
         <v>0.71341463414634099</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>54</v>
       </c>
@@ -9683,7 +9720,7 @@
         <v>0.71326164874551901</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>5</v>
       </c>
@@ -9697,7 +9734,7 @@
         <v>0.713043478260869</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>53</v>
       </c>
@@ -9711,7 +9748,7 @@
         <v>0.71270718232044195</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>51</v>
       </c>
@@ -9725,7 +9762,7 @@
         <v>0.71241830065359402</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>50</v>
       </c>
@@ -9739,7 +9776,7 @@
         <v>0.71165644171779097</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>49</v>
       </c>
@@ -9753,7 +9790,7 @@
         <v>0.71153846153846101</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>48</v>
       </c>
@@ -9767,7 +9804,7 @@
         <v>0.711409395973154</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>47</v>
       </c>
@@ -9781,7 +9818,7 @@
         <v>0.71084337349397497</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>45</v>
       </c>
@@ -9795,7 +9832,7 @@
         <v>0.71034482758620598</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>44</v>
       </c>
@@ -9809,7 +9846,7 @@
         <v>0.71008403361344496</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>43</v>
       </c>
@@ -9823,7 +9860,7 @@
         <v>0.70921985815602795</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>41</v>
       </c>
@@ -9837,7 +9874,7 @@
         <v>0.70921985815602795</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>41</v>
       </c>
@@ -9851,7 +9888,7 @@
         <v>0.70921985815602795</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>39</v>
       </c>
@@ -9865,7 +9902,7 @@
         <v>0.70909090909090899</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>20</v>
       </c>
@@ -9879,7 +9916,7 @@
         <v>0.70881226053639801</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>12</v>
       </c>
@@ -9893,7 +9930,7 @@
         <v>0.70781893004115204</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>37</v>
       </c>
@@ -9907,7 +9944,7 @@
         <v>0.70769230769230695</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>36</v>
       </c>
@@ -9921,7 +9958,7 @@
         <v>0.70744680851063801</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>35</v>
       </c>
@@ -9935,7 +9972,7 @@
         <v>0.70700636942675099</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>4</v>
       </c>
@@ -9949,7 +9986,7 @@
         <v>0.706395348837209</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>34</v>
       </c>
@@ -9963,7 +10000,7 @@
         <v>0.70618556701030899</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>33</v>
       </c>
@@ -9977,7 +10014,7 @@
         <v>0.70612244897959098</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>32</v>
       </c>
@@ -9991,7 +10028,7 @@
         <v>0.70567375886524797</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>31</v>
       </c>
@@ -10005,7 +10042,7 @@
         <v>0.70552147239263796</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>30</v>
       </c>
@@ -10019,7 +10056,7 @@
         <v>0.70535714285714202</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>28</v>
       </c>
@@ -10033,7 +10070,7 @@
         <v>0.705314009661835</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>27</v>
       </c>
@@ -10047,7 +10084,7 @@
         <v>0.705314009661835</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>26</v>
       </c>
@@ -10061,7 +10098,7 @@
         <v>0.70517928286852505</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>25</v>
       </c>
@@ -10075,7 +10112,7 @@
         <v>0.70517928286852505</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>23</v>
       </c>
@@ -10089,7 +10126,7 @@
         <v>0.70481927710843295</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>21</v>
       </c>
@@ -10103,7 +10140,7 @@
         <v>0.70422535211267601</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>19</v>
       </c>
@@ -10117,7 +10154,7 @@
         <v>0.70403587443946103</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>17</v>
       </c>
@@ -10131,7 +10168,7 @@
         <v>0.70303030303030301</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>15</v>
       </c>
@@ -10145,7 +10182,7 @@
         <v>0.70253164556962</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>13</v>
       </c>
@@ -10159,7 +10196,7 @@
         <v>0.70186335403726696</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>11</v>
       </c>
@@ -10173,7 +10210,7 @@
         <v>0.700598802395209</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>11</v>
       </c>
@@ -10187,7 +10224,7 @@
         <v>0.700598802395209</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>9</v>
       </c>
@@ -10201,7 +10238,7 @@
         <v>0.70040485829959498</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>7</v>
       </c>
@@ -10215,7 +10252,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>5</v>
       </c>
@@ -10230,7 +10267,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D563" xr:uid="{82D3A5D0-4506-4074-9B1D-E3F1162C8239}"/>
+  <autoFilter ref="A1:D563"/>
   <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -10245,4 +10282,379 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>39</v>
+      </c>
+      <c r="D3">
+        <v>0.76470588235294101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>83</v>
+      </c>
+      <c r="D4">
+        <v>0.71551724137931005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>0.69387755102040805</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>0.58823529411764697</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>0.57894736842105199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>53</v>
+      </c>
+      <c r="D8">
+        <v>0.56382978723404198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>0.52631578947368396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>0.52631578947368396</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>0.48888888888888798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>0.46296296296296202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>0.45833333333333298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>0.45454545454545398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>0.44897959183673403</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>0.44897959183673403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>29</v>
+      </c>
+      <c r="D18">
+        <v>0.42647058823529399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>49</v>
+      </c>
+      <c r="D19">
+        <v>0.42241379310344801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>55</v>
+      </c>
+      <c r="D20">
+        <v>0.41984732824427401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>225</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>34</v>
+      </c>
+      <c r="D21">
+        <v>0.40963855421686701</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>228</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>0.407407407407407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>38</v>
+      </c>
+      <c r="D23">
+        <v>0.40425531914893598</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D23">
+    <sortState ref="A2:D23">
+      <sortCondition descending="1" ref="D1:D23"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D23">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>